--- a/raw_data/20200818_saline/20200818_Sensor3_Test_59.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_59.xlsx
@@ -1,1172 +1,1588 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81EEA5C-F97E-49FB-BA5E-543632ECA60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>52756.596898</v>
+        <v>52756.596898000003</v>
       </c>
       <c r="B2" s="1">
-        <v>14.654610</v>
+        <v>14.65461</v>
       </c>
       <c r="C2" s="1">
-        <v>1145.490000</v>
+        <v>1145.49</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.822000</v>
+        <v>-254.822</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>52766.977474</v>
+        <v>52766.977473999999</v>
       </c>
       <c r="G2" s="1">
         <v>14.657494</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.040000</v>
+        <v>1166.04</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.557000</v>
+        <v>-214.55699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>52778.121615</v>
+        <v>52778.121614999996</v>
       </c>
       <c r="L2" s="1">
         <v>14.660589</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.830000</v>
+        <v>1193.83</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.882000</v>
+        <v>-149.88200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>52788.609981</v>
+        <v>52788.609981000001</v>
       </c>
       <c r="Q2" s="1">
         <v>14.663503</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.770000</v>
+        <v>1201.77</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.042000</v>
+        <v>-128.042</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>52799.175760</v>
+        <v>52799.175759999998</v>
       </c>
       <c r="V2" s="1">
-        <v>14.666438</v>
+        <v>14.666437999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.596000</v>
+        <v>-107.596</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>52809.640353</v>
+        <v>52809.640353000003</v>
       </c>
       <c r="AA2" s="1">
         <v>14.669345</v>
       </c>
       <c r="AB2" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.679900</v>
+        <v>-90.679900000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>52819.840117</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.672178</v>
+        <v>14.672178000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1221.500000</v>
+        <v>1221.5</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.249500</v>
+        <v>-86.249499999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>52830.253094</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.675070</v>
+        <v>14.67507</v>
       </c>
       <c r="AL2" s="1">
-        <v>1228.600000</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.893000</v>
+        <v>-89.893000000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>52840.832762</v>
+        <v>52840.832761999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.678009</v>
+        <v>14.678008999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1236.600000</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.041000</v>
+        <v>-102.041</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>52851.572011</v>
+        <v>52851.572010999997</v>
       </c>
       <c r="AU2" s="1">
         <v>14.680992</v>
       </c>
       <c r="AV2" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.712000</v>
+        <v>-121.712</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>52862.727195</v>
+        <v>52862.727194999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.684091</v>
       </c>
       <c r="BA2" s="1">
-        <v>1255.190000</v>
+        <v>1255.19</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.481000</v>
+        <v>-139.48099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>52873.301375</v>
+        <v>52873.301375000003</v>
       </c>
       <c r="BE2" s="1">
         <v>14.687028</v>
       </c>
       <c r="BF2" s="1">
-        <v>1295.840000</v>
+        <v>1295.8399999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.139000</v>
+        <v>-222.13900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>52883.967840</v>
+        <v>52883.967839999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.689991</v>
+        <v>14.689990999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1366.390000</v>
+        <v>1366.39</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.535000</v>
+        <v>-359.53500000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>52894.977073</v>
+        <v>52894.977073000002</v>
       </c>
       <c r="BO2" s="1">
         <v>14.693049</v>
       </c>
       <c r="BP2" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-582.897000</v>
+        <v>-582.89700000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>52905.605316</v>
+        <v>52905.605316000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.696001</v>
+        <v>14.696001000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.790000</v>
+        <v>1615.79</v>
       </c>
       <c r="BV2" s="1">
-        <v>-834.788000</v>
+        <v>-834.78800000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>52916.421574</v>
       </c>
       <c r="BY2" s="1">
-        <v>14.699006</v>
+        <v>14.699006000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.090000</v>
+        <v>1769.09</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1108.550000</v>
+        <v>-1108.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>52927.435270</v>
+        <v>52927.435270000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>14.702065</v>
+        <v>14.702064999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2191.280000</v>
+        <v>2191.2800000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1769.020000</v>
+        <v>-1769.02</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>52756.967741</v>
       </c>
       <c r="B3" s="1">
-        <v>14.654713</v>
+        <v>14.654712999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1145.240000</v>
+        <v>1145.24</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.576000</v>
+        <v>-254.57599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>52767.703609</v>
+        <v>52767.703608999997</v>
       </c>
       <c r="G3" s="1">
         <v>14.657695</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.120000</v>
+        <v>1166.1199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.276000</v>
+        <v>-214.27600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>52778.505484</v>
+        <v>52778.505484000001</v>
       </c>
       <c r="L3" s="1">
         <v>14.660696</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.650000</v>
+        <v>1193.6500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.544000</v>
+        <v>-149.54400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>52788.997357</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.663610</v>
+        <v>14.66361</v>
       </c>
       <c r="R3" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.091000</v>
+        <v>-128.09100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>52799.529408</v>
+        <v>52799.529408000002</v>
       </c>
       <c r="V3" s="1">
-        <v>14.666536</v>
+        <v>14.666536000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.250000</v>
+        <v>1209.25</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.450000</v>
+        <v>-107.45</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>52810.005906</v>
+        <v>52810.005905999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.669446</v>
+        <v>14.669446000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1216.830000</v>
+        <v>1216.83</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.598500</v>
+        <v>-90.598500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>52820.549365</v>
+        <v>52820.549364999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.672375</v>
+        <v>14.672375000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1221.520000</v>
+        <v>1221.52</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.270000</v>
+        <v>-86.27</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>52830.674732</v>
+        <v>52830.674731999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.675187</v>
+        <v>14.675186999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.886900</v>
+        <v>-89.886899999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>52841.266296</v>
+        <v>52841.266296000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.678130</v>
+        <v>14.678129999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1236.620000</v>
+        <v>1236.6199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>52851.936698</v>
+        <v>52851.936697999998</v>
       </c>
       <c r="AU3" s="1">
         <v>14.681094</v>
       </c>
       <c r="AV3" s="1">
-        <v>1246.610000</v>
+        <v>1246.6099999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.709000</v>
+        <v>-121.709</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>52863.123466</v>
+        <v>52863.123465999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.684201</v>
       </c>
       <c r="BA3" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.453000</v>
+        <v>-139.453</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>52873.702175</v>
+        <v>52873.702174999999</v>
       </c>
       <c r="BE3" s="1">
         <v>14.687139</v>
       </c>
       <c r="BF3" s="1">
-        <v>1295.850000</v>
+        <v>1295.8499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.171000</v>
+        <v>-222.17099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>52884.390430</v>
+        <v>52884.390429999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.690108</v>
       </c>
       <c r="BK3" s="1">
-        <v>1366.300000</v>
+        <v>1366.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.546000</v>
+        <v>-359.54599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>52895.395168</v>
+        <v>52895.395168000003</v>
       </c>
       <c r="BO3" s="1">
         <v>14.693165</v>
       </c>
       <c r="BP3" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.906000</v>
+        <v>-582.90599999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>52905.747667</v>
+        <v>52905.747667000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.696041</v>
+        <v>14.696040999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.890000</v>
+        <v>1615.89</v>
       </c>
       <c r="BV3" s="1">
-        <v>-834.845000</v>
+        <v>-834.84500000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>52916.906164</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.699141</v>
+        <v>14.699140999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1108.510000</v>
+        <v>-1108.51</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>52928.024517</v>
+        <v>52928.024516999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.702229</v>
+        <v>14.702229000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1771.120000</v>
+        <v>-1771.12</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>52757.633842</v>
+        <v>52757.633842000003</v>
       </c>
       <c r="B4" s="1">
-        <v>14.654898</v>
+        <v>14.654897999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1145.440000</v>
+        <v>1145.44</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.743000</v>
+        <v>-254.74299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>52768.050840</v>
+        <v>52768.050840000004</v>
       </c>
       <c r="G4" s="1">
-        <v>14.657792</v>
+        <v>14.657792000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.690000</v>
+        <v>1166.69</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.420000</v>
+        <v>-214.42</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>52778.860619</v>
+        <v>52778.860618999999</v>
       </c>
       <c r="L4" s="1">
         <v>14.660795</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.696000</v>
+        <v>-149.696</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>52789.345052</v>
+        <v>52789.345051999997</v>
       </c>
       <c r="Q4" s="1">
         <v>14.663707</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.620000</v>
+        <v>1201.6199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.989000</v>
+        <v>-127.989</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>52800.211441</v>
+        <v>52800.211440999999</v>
       </c>
       <c r="V4" s="1">
         <v>14.666725</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.382000</v>
+        <v>-107.38200000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>52810.445899</v>
+        <v>52810.445898999998</v>
       </c>
       <c r="AA4" s="1">
         <v>14.669568</v>
       </c>
       <c r="AB4" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.688600</v>
+        <v>-90.688599999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>52820.909987</v>
+        <v>52820.909986999999</v>
       </c>
       <c r="AF4" s="1">
         <v>14.672475</v>
       </c>
       <c r="AG4" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.303300</v>
+        <v>-86.303299999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>52831.022421</v>
+        <v>52831.022421000001</v>
       </c>
       <c r="AK4" s="1">
         <v>14.675284</v>
       </c>
       <c r="AL4" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.886700</v>
+        <v>-89.886700000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>52841.629832</v>
+        <v>52841.629831999999</v>
       </c>
       <c r="AP4" s="1">
         <v>14.678231</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>52852.300761</v>
+        <v>52852.300760999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.681195</v>
+        <v>14.681195000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1246.610000</v>
+        <v>1246.6099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.772000</v>
+        <v>-121.77200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>52863.538655</v>
+        <v>52863.538654999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.684316</v>
+        <v>14.684316000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1255.190000</v>
+        <v>1255.19</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.484000</v>
+        <v>-139.48400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>52874.124733</v>
+        <v>52874.124732999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.687257</v>
+        <v>14.687257000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.145000</v>
+        <v>-222.14500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>52884.740608</v>
@@ -1175,467 +1591,467 @@
         <v>14.690206</v>
       </c>
       <c r="BK4" s="1">
-        <v>1366.350000</v>
+        <v>1366.35</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.486000</v>
+        <v>-359.48599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>52895.797954</v>
+        <v>52895.797954000001</v>
       </c>
       <c r="BO4" s="1">
         <v>14.693277</v>
       </c>
       <c r="BP4" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-582.931000</v>
+        <v>-582.93100000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>52906.159842</v>
+        <v>52906.159842000001</v>
       </c>
       <c r="BT4" s="1">
         <v>14.696156</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.970000</v>
+        <v>1615.97</v>
       </c>
       <c r="BV4" s="1">
-        <v>-834.873000</v>
+        <v>-834.87300000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>52917.352068</v>
       </c>
       <c r="BY4" s="1">
-        <v>14.699264</v>
+        <v>14.699263999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.400000</v>
+        <v>1769.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1108.500000</v>
+        <v>-1108.5</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>52928.556196</v>
+        <v>52928.556195999998</v>
       </c>
       <c r="CD4" s="1">
         <v>14.702377</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.890000</v>
+        <v>2191.89</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1769.280000</v>
+        <v>-1769.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>52757.984006</v>
+        <v>52757.984005999999</v>
       </c>
       <c r="B5" s="1">
-        <v>14.654996</v>
+        <v>14.654996000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1145.570000</v>
+        <v>1145.57</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.525000</v>
+        <v>-254.52500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>52768.394536</v>
       </c>
       <c r="G5" s="1">
-        <v>14.657887</v>
+        <v>14.657887000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1166.660000</v>
+        <v>1166.6600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.294000</v>
+        <v>-214.29400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>52779.521289</v>
+        <v>52779.521288999997</v>
       </c>
       <c r="L5" s="1">
         <v>14.660978</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.739000</v>
+        <v>-149.739</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>52790.018125</v>
+        <v>52790.018125000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.663894</v>
+        <v>14.663894000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.950000</v>
+        <v>-127.95</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>52800.560625</v>
+        <v>52800.560624999998</v>
       </c>
       <c r="V5" s="1">
         <v>14.666822</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.220000</v>
+        <v>1209.22</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.498000</v>
+        <v>-107.498</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>52810.700337</v>
+        <v>52810.700337000002</v>
       </c>
       <c r="AA5" s="1">
         <v>14.669639</v>
       </c>
       <c r="AB5" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.670500</v>
+        <v>-90.670500000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>52821.252691</v>
+        <v>52821.252691000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.672570</v>
+        <v>14.67257</v>
       </c>
       <c r="AG5" s="1">
-        <v>1221.540000</v>
+        <v>1221.54</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.383800</v>
+        <v>-86.383799999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>52831.372597</v>
+        <v>52831.372597000001</v>
       </c>
       <c r="AK5" s="1">
         <v>14.675381</v>
       </c>
       <c r="AL5" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.894800</v>
+        <v>-89.894800000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>52841.988472</v>
+        <v>52841.988471999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>14.678330</v>
+        <v>14.678330000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>52852.717432</v>
+        <v>52852.717431999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.681310</v>
+        <v>14.68131</v>
       </c>
       <c r="AV5" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.752000</v>
+        <v>-121.752</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>52863.844154</v>
+        <v>52863.844153999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.684401</v>
+        <v>14.684400999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.472000</v>
+        <v>-139.47200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>52874.422860</v>
+        <v>52874.422859999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.687340</v>
+        <v>14.687340000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.154000</v>
+        <v>-222.154</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>52885.115118</v>
+        <v>52885.115118000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.690310</v>
+        <v>14.69031</v>
       </c>
       <c r="BK5" s="1">
-        <v>1366.330000</v>
+        <v>1366.33</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.538000</v>
+        <v>-359.53800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>52896.196219</v>
+        <v>52896.196218999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.693388</v>
+        <v>14.693388000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1481.930000</v>
+        <v>1481.93</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.006000</v>
+        <v>-583.00599999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>52906.583725</v>
+        <v>52906.583724999997</v>
       </c>
       <c r="BT5" s="1">
         <v>14.696273</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV5" s="1">
-        <v>-834.890000</v>
+        <v>-834.89</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>52917.811860</v>
+        <v>52917.811860000002</v>
       </c>
       <c r="BY5" s="1">
         <v>14.699392</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.320000</v>
+        <v>1769.32</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1108.500000</v>
+        <v>-1108.5</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>52929.078526</v>
+        <v>52929.078525999998</v>
       </c>
       <c r="CD5" s="1">
         <v>14.702522</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.610000</v>
+        <v>2190.61</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1771.910000</v>
+        <v>-1771.91</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>52758.636773</v>
+        <v>52758.636772999998</v>
       </c>
       <c r="B6" s="1">
         <v>14.655177</v>
       </c>
       <c r="C6" s="1">
-        <v>1145.200000</v>
+        <v>1145.2</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.686000</v>
+        <v>-254.68600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>52769.047781</v>
+        <v>52769.047781000001</v>
       </c>
       <c r="G6" s="1">
-        <v>14.658069</v>
+        <v>14.658068999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.820000</v>
+        <v>1165.82</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.551000</v>
+        <v>-213.55099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>52779.883867</v>
+        <v>52779.883866999997</v>
       </c>
       <c r="L6" s="1">
-        <v>14.661079</v>
+        <v>14.661079000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.810000</v>
+        <v>1193.81</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.673000</v>
+        <v>-149.673</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>52790.390620</v>
+        <v>52790.390619999998</v>
       </c>
       <c r="Q6" s="1">
         <v>14.663997</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.740000</v>
+        <v>1201.74</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.938000</v>
+        <v>-127.938</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>52800.902829</v>
+        <v>52800.902828999999</v>
       </c>
       <c r="V6" s="1">
         <v>14.666917</v>
       </c>
       <c r="W6" s="1">
-        <v>1209.050000</v>
+        <v>1209.05</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.435000</v>
+        <v>-107.435</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>52811.048992</v>
+        <v>52811.048992000004</v>
       </c>
       <c r="AA6" s="1">
         <v>14.669736</v>
       </c>
       <c r="AB6" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.692700</v>
+        <v>-90.692700000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>52821.596418</v>
+        <v>52821.596418000001</v>
       </c>
       <c r="AF6" s="1">
         <v>14.672666</v>
       </c>
       <c r="AG6" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.346600</v>
+        <v>-86.346599999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>52831.782758</v>
+        <v>52831.782758000001</v>
       </c>
       <c r="AK6" s="1">
         <v>14.675495</v>
       </c>
       <c r="AL6" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.908500</v>
+        <v>-89.908500000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>52842.415494</v>
+        <v>52842.415494000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.678449</v>
+        <v>14.678449000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1236.620000</v>
+        <v>1236.6199999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.077000</v>
+        <v>-102.077</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>52853.027898</v>
@@ -1644,210 +2060,210 @@
         <v>14.681397</v>
       </c>
       <c r="AV6" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.758000</v>
+        <v>-121.758</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>52864.204251</v>
+        <v>52864.204251000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.684501</v>
+        <v>14.684500999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.483000</v>
+        <v>-139.483</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>52874.781437</v>
+        <v>52874.781436999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.687439</v>
+        <v>14.687438999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1295.850000</v>
+        <v>1295.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.148000</v>
+        <v>-222.148</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>52885.499982</v>
+        <v>52885.499982000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.690417</v>
       </c>
       <c r="BK6" s="1">
-        <v>1366.370000</v>
+        <v>1366.37</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.482000</v>
+        <v>-359.48200000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>52896.773091</v>
+        <v>52896.773091000003</v>
       </c>
       <c r="BO6" s="1">
         <v>14.693548</v>
       </c>
       <c r="BP6" s="1">
-        <v>1481.920000</v>
+        <v>1481.92</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.931000</v>
+        <v>-582.93100000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>52907.011970</v>
+        <v>52907.01197</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.696392</v>
+        <v>14.696391999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.830000</v>
+        <v>1615.83</v>
       </c>
       <c r="BV6" s="1">
-        <v>-835.073000</v>
+        <v>-835.07299999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>52918.257303</v>
+        <v>52918.257302999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.699516</v>
+        <v>14.699515999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1108.470000</v>
+        <v>-1108.47</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>52929.616147</v>
+        <v>52929.616147000001</v>
       </c>
       <c r="CD6" s="1">
         <v>14.702671</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.440000</v>
+        <v>2192.44</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1769.660000</v>
+        <v>-1769.66</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>52759.005766</v>
+        <v>52759.005766000002</v>
       </c>
       <c r="B7" s="1">
         <v>14.655279</v>
       </c>
       <c r="C7" s="1">
-        <v>1145.310000</v>
+        <v>1145.31</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.826000</v>
+        <v>-254.82599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>52769.426758</v>
+        <v>52769.426758000001</v>
       </c>
       <c r="G7" s="1">
-        <v>14.658174</v>
+        <v>14.658174000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.810000</v>
+        <v>1166.81</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.169000</v>
+        <v>-214.16900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>52780.234040</v>
+        <v>52780.234040000003</v>
       </c>
       <c r="L7" s="1">
-        <v>14.661176</v>
+        <v>14.661175999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.560000</v>
+        <v>1193.56</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.704000</v>
+        <v>-149.70400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>52790.740298</v>
+        <v>52790.740297999997</v>
       </c>
       <c r="Q7" s="1">
         <v>14.664095</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.016000</v>
+        <v>-128.01599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>52801.252012</v>
+        <v>52801.252011999997</v>
       </c>
       <c r="V7" s="1">
         <v>14.667014</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.190000</v>
+        <v>1209.19</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.488000</v>
+        <v>-107.488</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>52811.467615</v>
+        <v>52811.467615000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.669852</v>
+        <v>14.669852000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.584800</v>
+        <v>-90.584800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>52822.016529</v>
@@ -1856,345 +2272,345 @@
         <v>14.672782</v>
       </c>
       <c r="AG7" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.265800</v>
+        <v>-86.265799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>52832.077903</v>
+        <v>52832.077902999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.675577</v>
+        <v>14.675577000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.925600</v>
+        <v>-89.925600000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>52842.707639</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.678530</v>
+        <v>14.67853</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1236.620000</v>
+        <v>1236.6199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.088000</v>
+        <v>-102.08799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>52853.393976</v>
+        <v>52853.393975999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.681498</v>
+        <v>14.681497999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.780000</v>
+        <v>-121.78</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>52864.560411</v>
+        <v>52864.560410999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.684600</v>
+        <v>14.6846</v>
       </c>
       <c r="BA7" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.478000</v>
+        <v>-139.47800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>52875.143021</v>
+        <v>52875.143021000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.687540</v>
+        <v>14.68754</v>
       </c>
       <c r="BF7" s="1">
-        <v>1295.830000</v>
+        <v>1295.83</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.151000</v>
+        <v>-222.15100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>52886.262829</v>
+        <v>52886.262828999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.690629</v>
+        <v>14.690628999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1366.300000</v>
+        <v>1366.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.547000</v>
+        <v>-359.54700000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>52897.009186</v>
+        <v>52897.009186000003</v>
       </c>
       <c r="BO7" s="1">
         <v>14.693614</v>
       </c>
       <c r="BP7" s="1">
-        <v>1481.930000</v>
+        <v>1481.93</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.912000</v>
+        <v>-582.91200000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>52907.415216</v>
+        <v>52907.415216000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.696504</v>
+        <v>14.696503999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.860000</v>
+        <v>1615.86</v>
       </c>
       <c r="BV7" s="1">
-        <v>-835.090000</v>
+        <v>-835.09</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>52918.678370</v>
+        <v>52918.678370000001</v>
       </c>
       <c r="BY7" s="1">
         <v>14.699633</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1108.630000</v>
+        <v>-1108.6300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>52930.154343</v>
+        <v>52930.154343000002</v>
       </c>
       <c r="CD7" s="1">
         <v>14.702821</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.130000</v>
+        <v>2190.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1770.620000</v>
+        <v>-1770.62</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>52759.353957</v>
+        <v>52759.353956999999</v>
       </c>
       <c r="B8" s="1">
         <v>14.655376</v>
       </c>
       <c r="C8" s="1">
-        <v>1145.220000</v>
+        <v>1145.22</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.740000</v>
+        <v>-254.74</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>52769.772460</v>
+        <v>52769.77246</v>
       </c>
       <c r="G8" s="1">
-        <v>14.658270</v>
+        <v>14.65827</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.420000</v>
+        <v>1166.42</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.628000</v>
+        <v>-214.62799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>52780.581240</v>
+        <v>52780.58124</v>
       </c>
       <c r="L8" s="1">
         <v>14.661273</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.840000</v>
+        <v>1193.8399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.658000</v>
+        <v>-149.65799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>52791.079562</v>
+        <v>52791.079561999999</v>
       </c>
       <c r="Q8" s="1">
         <v>14.664189</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.680000</v>
+        <v>1201.68</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.004000</v>
+        <v>-128.00399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>52801.678076</v>
+        <v>52801.678075999997</v>
       </c>
       <c r="V8" s="1">
         <v>14.667133</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.150000</v>
+        <v>1209.1500000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.417000</v>
+        <v>-107.417</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>52811.746894</v>
+        <v>52811.746894000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.669930</v>
+        <v>14.669930000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1216.830000</v>
+        <v>1216.83</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.663900</v>
+        <v>-90.663899999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>52822.284370</v>
+        <v>52822.284370000001</v>
       </c>
       <c r="AF8" s="1">
         <v>14.672857</v>
       </c>
       <c r="AG8" s="1">
-        <v>1221.430000</v>
+        <v>1221.43</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.313500</v>
+        <v>-86.313500000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>52832.425603</v>
+        <v>52832.425603000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.675674</v>
+        <v>14.675674000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1228.600000</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.898800</v>
+        <v>-89.898799999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>52843.069717</v>
+        <v>52843.069716999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.678630</v>
+        <v>14.67863</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.097000</v>
+        <v>-102.09699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>52853.761017</v>
+        <v>52853.761016999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.681600</v>
+        <v>14.6816</v>
       </c>
       <c r="AV8" s="1">
-        <v>1246.600000</v>
+        <v>1246.5999999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.759000</v>
+        <v>-121.759</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>52865.277593</v>
+        <v>52865.277592999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.684799</v>
       </c>
       <c r="BA8" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.474000</v>
+        <v>-139.47399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>52875.866187</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.687741</v>
+        <v>14.687741000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1295.870000</v>
+        <v>1295.8699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.158000</v>
+        <v>-222.15799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>52886.639292</v>
@@ -2203,1011 +2619,1011 @@
         <v>14.690733</v>
       </c>
       <c r="BK8" s="1">
-        <v>1366.310000</v>
+        <v>1366.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.479000</v>
+        <v>-359.47899999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>52897.429758</v>
+        <v>52897.429757999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.693730</v>
+        <v>14.69373</v>
       </c>
       <c r="BP8" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-582.955000</v>
+        <v>-582.95500000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>52907.831857</v>
+        <v>52907.831856999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.696620</v>
+        <v>14.696619999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV8" s="1">
-        <v>-835.094000</v>
+        <v>-835.09400000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>52919.407490</v>
+        <v>52919.407489999998</v>
       </c>
       <c r="BY8" s="1">
         <v>14.699835</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.320000</v>
+        <v>1769.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1108.450000</v>
+        <v>-1108.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>52930.695443</v>
+        <v>52930.695442999997</v>
       </c>
       <c r="CD8" s="1">
         <v>14.702971</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.350000</v>
+        <v>2192.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1771.320000</v>
+        <v>-1771.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>52759.694707</v>
+        <v>52759.694707000002</v>
       </c>
       <c r="B9" s="1">
         <v>14.655471</v>
       </c>
       <c r="C9" s="1">
-        <v>1145.340000</v>
+        <v>1145.3399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.747000</v>
+        <v>-254.74700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>52770.118134</v>
+        <v>52770.118133999997</v>
       </c>
       <c r="G9" s="1">
-        <v>14.658366</v>
+        <v>14.658365999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.190000</v>
+        <v>1166.19</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.301000</v>
+        <v>-214.30099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>52781.019209</v>
+        <v>52781.019208999998</v>
       </c>
       <c r="L9" s="1">
         <v>14.661394</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.710000</v>
+        <v>1193.71</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.767000</v>
+        <v>-149.767</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>52791.504139</v>
+        <v>52791.504138999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.664307</v>
+        <v>14.664307000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1201.630000</v>
+        <v>1201.6300000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.990000</v>
+        <v>-127.99</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>52801.951868</v>
+        <v>52801.951867999996</v>
       </c>
       <c r="V9" s="1">
         <v>14.667209</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.360000</v>
+        <v>1209.3599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.384000</v>
+        <v>-107.384</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>52812.094098</v>
+        <v>52812.094098000001</v>
       </c>
       <c r="AA9" s="1">
         <v>14.670026</v>
       </c>
       <c r="AB9" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.625200</v>
+        <v>-90.625200000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>52822.628129</v>
+        <v>52822.628128999997</v>
       </c>
       <c r="AF9" s="1">
         <v>14.672952</v>
       </c>
       <c r="AG9" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.277200</v>
+        <v>-86.277199999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>52832.773504</v>
+        <v>52832.773503999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.675770</v>
+        <v>14.67577</v>
       </c>
       <c r="AL9" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.888300</v>
+        <v>-89.888300000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>52843.428325</v>
+        <v>52843.428325000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.678730</v>
+        <v>14.67873</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1236.600000</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>52854.486630</v>
+        <v>52854.486629999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.681802</v>
+        <v>14.681801999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.781000</v>
+        <v>-121.78100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>52865.634743</v>
+        <v>52865.634743000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.684899</v>
       </c>
       <c r="BA9" s="1">
-        <v>1255.180000</v>
+        <v>1255.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.443000</v>
+        <v>-139.44300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>52876.255577</v>
+        <v>52876.255577000004</v>
       </c>
       <c r="BE9" s="1">
         <v>14.687849</v>
       </c>
       <c r="BF9" s="1">
-        <v>1295.870000</v>
+        <v>1295.8699999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.164000</v>
+        <v>-222.16399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>52887.015756</v>
+        <v>52887.015756000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.690838</v>
+        <v>14.690837999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1366.410000</v>
+        <v>1366.41</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.519000</v>
+        <v>-359.51900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>52898.138044</v>
+        <v>52898.138043999999</v>
       </c>
       <c r="BO9" s="1">
         <v>14.693927</v>
       </c>
       <c r="BP9" s="1">
-        <v>1481.930000</v>
+        <v>1481.93</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.954000</v>
+        <v>-582.95399999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>52908.555024</v>
+        <v>52908.555024000001</v>
       </c>
       <c r="BT9" s="1">
         <v>14.696821</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV9" s="1">
-        <v>-835.171000</v>
+        <v>-835.17100000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>52919.528512</v>
+        <v>52919.528511999997</v>
       </c>
       <c r="BY9" s="1">
         <v>14.699869</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1108.710000</v>
+        <v>-1108.71</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>52931.234128</v>
+        <v>52931.234127999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.703121</v>
+        <v>14.703120999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2191.360000</v>
+        <v>2191.36</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1769.100000</v>
+        <v>-1769.1</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>52760.116340</v>
+        <v>52760.11634</v>
       </c>
       <c r="B10" s="1">
         <v>14.655588</v>
       </c>
       <c r="C10" s="1">
-        <v>1145.360000</v>
+        <v>1145.3599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-254.646000</v>
+        <v>-254.64599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>52770.536261</v>
+        <v>52770.536261000001</v>
       </c>
       <c r="G10" s="1">
-        <v>14.658482</v>
+        <v>14.658481999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.280000</v>
+        <v>1166.28</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.080000</v>
+        <v>-214.08</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>52781.274153</v>
+        <v>52781.274152999998</v>
       </c>
       <c r="L10" s="1">
         <v>14.661465</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.840000</v>
+        <v>1193.8399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.583000</v>
+        <v>-149.583</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>52791.783881</v>
+        <v>52791.783881000003</v>
       </c>
       <c r="Q10" s="1">
         <v>14.664384</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.680000</v>
+        <v>1201.68</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.997000</v>
+        <v>-127.997</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>52802.297579</v>
+        <v>52802.297578999998</v>
       </c>
       <c r="V10" s="1">
-        <v>14.667305</v>
+        <v>14.667305000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.444000</v>
+        <v>-107.444</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>52812.444767</v>
+        <v>52812.444767000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.670124</v>
+        <v>14.670123999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.664500</v>
+        <v>-90.664500000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>52822.974514</v>
+        <v>52822.974514000001</v>
       </c>
       <c r="AF10" s="1">
         <v>14.673048</v>
       </c>
       <c r="AG10" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.306800</v>
+        <v>-86.306799999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>52833.471138</v>
+        <v>52833.471138000001</v>
       </c>
       <c r="AK10" s="1">
         <v>14.675964</v>
       </c>
       <c r="AL10" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.899100</v>
+        <v>-89.899100000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>52844.148052</v>
+        <v>52844.148051999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.678930</v>
+        <v>14.678929999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.036000</v>
+        <v>-102.036</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>52854.879959</v>
+        <v>52854.879958999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.681911</v>
+        <v>14.681910999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.797000</v>
+        <v>-121.797</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>52865.995304</v>
+        <v>52865.995303999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.684999</v>
+        <v>14.684998999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.466000</v>
+        <v>-139.46600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>52876.617661</v>
+        <v>52876.617660999997</v>
       </c>
       <c r="BE10" s="1">
         <v>14.687949</v>
       </c>
       <c r="BF10" s="1">
-        <v>1295.870000</v>
+        <v>1295.8699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.160000</v>
+        <v>-222.16</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>52887.721067</v>
+        <v>52887.721066999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>14.691034</v>
       </c>
       <c r="BK10" s="1">
-        <v>1366.340000</v>
+        <v>1366.34</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.476000</v>
+        <v>-359.476</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>52898.247200</v>
+        <v>52898.247199999998</v>
       </c>
       <c r="BO10" s="1">
         <v>14.693958</v>
       </c>
       <c r="BP10" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-582.944000</v>
+        <v>-582.94399999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>52908.685471</v>
+        <v>52908.685470999997</v>
       </c>
       <c r="BT10" s="1">
         <v>14.696857</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.880000</v>
+        <v>1615.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-835.278000</v>
+        <v>-835.27800000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>52919.975409</v>
+        <v>52919.975408999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.699993</v>
+        <v>14.699992999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.110000</v>
+        <v>1769.11</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1108.500000</v>
+        <v>-1108.5</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>52931.773744</v>
+        <v>52931.773743999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.703270</v>
+        <v>14.70327</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1772.100000</v>
+        <v>-1772.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>52760.396051</v>
+        <v>52760.396051000003</v>
       </c>
       <c r="B11" s="1">
         <v>14.655666</v>
       </c>
       <c r="C11" s="1">
-        <v>1145.520000</v>
+        <v>1145.52</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.684000</v>
+        <v>-254.684</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>52770.828404</v>
       </c>
       <c r="G11" s="1">
-        <v>14.658563</v>
+        <v>14.658562999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.920000</v>
+        <v>1165.92</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.822000</v>
+        <v>-214.822</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>52781.616390</v>
+        <v>52781.616390000003</v>
       </c>
       <c r="L11" s="1">
-        <v>14.661560</v>
+        <v>14.66156</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.700000</v>
+        <v>1193.7</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.651000</v>
+        <v>-149.65100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>52792.133065</v>
+        <v>52792.133065000002</v>
       </c>
       <c r="Q11" s="1">
         <v>14.664481</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.650000</v>
+        <v>1201.6500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.974000</v>
+        <v>-127.974</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>52802.641308</v>
+        <v>52802.641307999998</v>
       </c>
       <c r="V11" s="1">
-        <v>14.667400</v>
+        <v>14.667400000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.190000</v>
+        <v>1209.19</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.455000</v>
+        <v>-107.455</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>52813.141131</v>
+        <v>52813.141130999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.670317</v>
+        <v>14.670317000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.705300</v>
+        <v>-90.705299999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>52823.659807</v>
+        <v>52823.659807000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.673239</v>
+        <v>14.673239000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1221.480000</v>
+        <v>1221.48</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.328600</v>
+        <v>-86.328599999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>52833.816851</v>
+        <v>52833.816851000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.676060</v>
+        <v>14.67606</v>
       </c>
       <c r="AL11" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.877200</v>
+        <v>-89.877200000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>52844.507620</v>
+        <v>52844.507619999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.679030</v>
+        <v>14.679029999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1236.620000</v>
+        <v>1236.6199999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>52855.247029</v>
+        <v>52855.247028999998</v>
       </c>
       <c r="AU11" s="1">
         <v>14.682013</v>
       </c>
       <c r="AV11" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.782000</v>
+        <v>-121.782</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>52866.662422</v>
+        <v>52866.662422000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.685184</v>
       </c>
       <c r="BA11" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.496000</v>
+        <v>-139.49600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>52877.295161</v>
+        <v>52877.295161000002</v>
       </c>
       <c r="BE11" s="1">
         <v>14.688138</v>
       </c>
       <c r="BF11" s="1">
-        <v>1295.820000</v>
+        <v>1295.82</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.195000</v>
+        <v>-222.19499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>52888.163003</v>
+        <v>52888.163003000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.691156</v>
+        <v>14.691155999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1366.370000</v>
+        <v>1366.37</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.512000</v>
+        <v>-359.512</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>52898.675708</v>
+        <v>52898.675708000002</v>
       </c>
       <c r="BO11" s="1">
         <v>14.694077</v>
       </c>
       <c r="BP11" s="1">
-        <v>1481.950000</v>
+        <v>1481.95</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-582.918000</v>
+        <v>-582.91800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>52909.125423</v>
+        <v>52909.125422999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.696979</v>
+        <v>14.696979000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.730000</v>
+        <v>1615.73</v>
       </c>
       <c r="BV11" s="1">
-        <v>-835.274000</v>
+        <v>-835.274</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>52920.406431</v>
+        <v>52920.406431000003</v>
       </c>
       <c r="BY11" s="1">
         <v>14.700113</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.250000</v>
+        <v>1769.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1108.560000</v>
+        <v>-1108.56</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>52932.315873</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.703421</v>
+        <v>14.703421000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.310000</v>
+        <v>2192.31</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1769.680000</v>
+        <v>-1769.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>52760.736802</v>
+        <v>52760.736801999999</v>
       </c>
       <c r="B12" s="1">
-        <v>14.655760</v>
+        <v>14.655760000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1145.290000</v>
+        <v>1145.29</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.488000</v>
+        <v>-254.488</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>52771.171142</v>
+        <v>52771.171141999999</v>
       </c>
       <c r="G12" s="1">
         <v>14.658659</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.270000</v>
+        <v>1166.27</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.232000</v>
+        <v>-214.232</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>52781.961112</v>
+        <v>52781.961111999997</v>
       </c>
       <c r="L12" s="1">
-        <v>14.661656</v>
+        <v>14.661656000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.810000</v>
+        <v>1193.81</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.759000</v>
+        <v>-149.75899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>52792.802168</v>
+        <v>52792.802168000002</v>
       </c>
       <c r="Q12" s="1">
         <v>14.664667</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.051000</v>
+        <v>-128.05099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>52803.326088</v>
+        <v>52803.326088000002</v>
       </c>
       <c r="V12" s="1">
         <v>14.667591</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.556000</v>
+        <v>-107.556</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>52813.489844</v>
+        <v>52813.489844000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.670414</v>
+        <v>14.670413999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.719600</v>
+        <v>-90.7196</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>52824.002543</v>
+        <v>52824.002543000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.673334</v>
+        <v>14.673334000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.316600</v>
+        <v>-86.316599999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>52834.167059</v>
+        <v>52834.167058999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.676158</v>
+        <v>14.676157999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.905800</v>
+        <v>-89.905799999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>52845.175236</v>
+        <v>52845.175236000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.679215</v>
+        <v>14.679214999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>52855.914645</v>
+        <v>52855.914644999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.682199</v>
+        <v>14.682199000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.822000</v>
+        <v>-121.822</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>52867.097911</v>
+        <v>52867.097910999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.685305</v>
       </c>
       <c r="BA12" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.480000</v>
+        <v>-139.47999999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>52877.725198</v>
@@ -3216,58 +3632,58 @@
         <v>14.688257</v>
       </c>
       <c r="BF12" s="1">
-        <v>1295.840000</v>
+        <v>1295.8399999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.160000</v>
+        <v>-222.16</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>52888.570219</v>
+        <v>52888.570219000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.691270</v>
+        <v>14.691269999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1366.300000</v>
+        <v>1366.3</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.542000</v>
+        <v>-359.54199999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>52899.069563</v>
+        <v>52899.069562999997</v>
       </c>
       <c r="BO12" s="1">
         <v>14.694186</v>
       </c>
       <c r="BP12" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.958000</v>
+        <v>-582.95799999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>52909.552017</v>
+        <v>52909.552017000002</v>
       </c>
       <c r="BT12" s="1">
         <v>14.697098</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.710000</v>
+        <v>1615.71</v>
       </c>
       <c r="BV12" s="1">
-        <v>-835.303000</v>
+        <v>-835.303</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>52920.830016</v>
@@ -3276,210 +3692,210 @@
         <v>14.700231</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1108.600000</v>
+        <v>-1108.5999999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>52932.857007</v>
+        <v>52932.857006999999</v>
       </c>
       <c r="CD12" s="1">
         <v>14.703571</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.930000</v>
+        <v>2189.9299999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1770.760000</v>
+        <v>-1770.76</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>52761.082515</v>
+        <v>52761.082515000002</v>
       </c>
       <c r="B13" s="1">
         <v>14.655856</v>
       </c>
       <c r="C13" s="1">
-        <v>1145.320000</v>
+        <v>1145.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-254.695000</v>
+        <v>-254.69499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>52771.516358</v>
+        <v>52771.516358000001</v>
       </c>
       <c r="G13" s="1">
-        <v>14.658755</v>
+        <v>14.658754999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.160000</v>
+        <v>1166.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-214.301000</v>
+        <v>-214.30099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>52782.656501</v>
+        <v>52782.656500999998</v>
       </c>
       <c r="L13" s="1">
         <v>14.661849</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.840000</v>
+        <v>1193.8399999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.592000</v>
+        <v>-149.59200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>52793.179129</v>
+        <v>52793.179128999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.664772</v>
+        <v>14.664771999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.043000</v>
+        <v>-128.04300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>52803.671497</v>
+        <v>52803.671497000003</v>
       </c>
       <c r="V13" s="1">
-        <v>14.667687</v>
+        <v>14.667687000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1209.150000</v>
+        <v>1209.1500000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.435000</v>
+        <v>-107.435</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>52813.837529</v>
+        <v>52813.837528999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>14.670510</v>
+        <v>14.67051</v>
       </c>
       <c r="AB13" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.668800</v>
+        <v>-90.668800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>52824.346734</v>
+        <v>52824.346733999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.673430</v>
+        <v>14.67343</v>
       </c>
       <c r="AG13" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.264900</v>
+        <v>-86.264899999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>52834.833189</v>
+        <v>52834.833188999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.676343</v>
+        <v>14.676342999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.895700</v>
+        <v>-89.895700000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>52845.616178</v>
+        <v>52845.616177999997</v>
       </c>
       <c r="AP13" s="1">
         <v>14.679338</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>52856.373908</v>
+        <v>52856.373908000001</v>
       </c>
       <c r="AU13" s="1">
         <v>14.682326</v>
       </c>
       <c r="AV13" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.770000</v>
+        <v>-121.77</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>52867.456518</v>
+        <v>52867.456517999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.685405</v>
+        <v>14.685404999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.453000</v>
+        <v>-139.453</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>52878.086280</v>
+        <v>52878.086280000003</v>
       </c>
       <c r="BE13" s="1">
         <v>14.688357</v>
       </c>
       <c r="BF13" s="1">
-        <v>1295.830000</v>
+        <v>1295.83</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.154000</v>
+        <v>-222.154</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>52888.944227</v>
@@ -3488,300 +3904,300 @@
         <v>14.691373</v>
       </c>
       <c r="BK13" s="1">
-        <v>1366.370000</v>
+        <v>1366.37</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.506000</v>
+        <v>-359.50599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>52899.490635</v>
+        <v>52899.490635000002</v>
       </c>
       <c r="BO13" s="1">
         <v>14.694303</v>
       </c>
       <c r="BP13" s="1">
-        <v>1481.920000</v>
+        <v>1481.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.953000</v>
+        <v>-582.95299999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>52909.973619</v>
+        <v>52909.973618999997</v>
       </c>
       <c r="BT13" s="1">
         <v>14.697215</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.710000</v>
+        <v>1615.71</v>
       </c>
       <c r="BV13" s="1">
-        <v>-835.396000</v>
+        <v>-835.39599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>52921.250163</v>
+        <v>52921.250162999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.700347</v>
+        <v>14.700347000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.190000</v>
+        <v>1769.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1108.500000</v>
+        <v>-1108.5</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>52933.397647</v>
+        <v>52933.397646999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.703722</v>
+        <v>14.703722000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2192.470000</v>
+        <v>2192.4699999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1770.890000</v>
+        <v>-1770.89</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>52761.762530</v>
+        <v>52761.76253</v>
       </c>
       <c r="B14" s="1">
-        <v>14.656045</v>
+        <v>14.656045000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1145.250000</v>
+        <v>1145.25</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.850000</v>
+        <v>-254.85</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>52772.203316</v>
+        <v>52772.203315999999</v>
       </c>
       <c r="G14" s="1">
-        <v>14.658945</v>
+        <v>14.658944999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.050000</v>
+        <v>1166.05</v>
       </c>
       <c r="I14" s="1">
-        <v>-214.214000</v>
+        <v>-214.214</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>52783.001235</v>
+        <v>52783.001235000003</v>
       </c>
       <c r="L14" s="1">
-        <v>14.661945</v>
+        <v>14.661944999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.840000</v>
+        <v>1193.8399999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.809000</v>
+        <v>-149.809</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>52793.528807</v>
+        <v>52793.528807000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.664869</v>
+        <v>14.664868999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.012000</v>
+        <v>-128.012</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>52804.013241</v>
+        <v>52804.013241000001</v>
       </c>
       <c r="V14" s="1">
         <v>14.667781</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.537000</v>
+        <v>-107.53700000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>52814.496683</v>
+        <v>52814.496682999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.670694</v>
+        <v>14.670693999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1216.770000</v>
+        <v>1216.77</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.632500</v>
+        <v>-90.632499999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>52825.006909</v>
+        <v>52825.006909000003</v>
       </c>
       <c r="AF14" s="1">
         <v>14.673613</v>
       </c>
       <c r="AG14" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.368100</v>
+        <v>-86.368099999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>52835.212132</v>
+        <v>52835.212132000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.676448</v>
+        <v>14.676448000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.909200</v>
+        <v>-89.909199999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>52845.977265</v>
+        <v>52845.977265000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.679438</v>
+        <v>14.679437999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1236.600000</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>52856.738963</v>
+        <v>52856.738963000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.682427</v>
+        <v>14.682427000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.797000</v>
+        <v>-121.797</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>52867.816149</v>
+        <v>52867.816148999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.685504</v>
       </c>
       <c r="BA14" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.478000</v>
+        <v>-139.47800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>52878.445880</v>
+        <v>52878.445879999999</v>
       </c>
       <c r="BE14" s="1">
         <v>14.688457</v>
       </c>
       <c r="BF14" s="1">
-        <v>1295.830000</v>
+        <v>1295.83</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.148000</v>
+        <v>-222.148</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>52889.367784</v>
+        <v>52889.367784000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.691491</v>
+        <v>14.691490999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1366.350000</v>
+        <v>1366.35</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.459000</v>
+        <v>-359.459</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>52899.888923</v>
+        <v>52899.888922999999</v>
       </c>
       <c r="BO14" s="1">
         <v>14.694414</v>
       </c>
       <c r="BP14" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.950000</v>
+        <v>-582.95000000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>52910.391212</v>
+        <v>52910.391212000002</v>
       </c>
       <c r="BT14" s="1">
         <v>14.697331</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-835.387000</v>
+        <v>-835.38699999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>52921.676195</v>
@@ -3790,679 +4206,679 @@
         <v>14.700466</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.270000</v>
+        <v>1769.27</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1108.500000</v>
+        <v>-1108.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>52933.936797</v>
+        <v>52933.936797000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.703871</v>
+        <v>14.703870999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.610000</v>
+        <v>2190.61</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1769.610000</v>
+        <v>-1769.61</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>52762.106256</v>
+        <v>52762.106255999999</v>
       </c>
       <c r="B15" s="1">
         <v>14.656141</v>
       </c>
       <c r="C15" s="1">
-        <v>1145.030000</v>
+        <v>1145.03</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.725000</v>
+        <v>-254.72499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>52772.550018</v>
+        <v>52772.550018000002</v>
       </c>
       <c r="G15" s="1">
-        <v>14.659042</v>
+        <v>14.659041999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.220000</v>
+        <v>1167.22</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.541000</v>
+        <v>-214.541</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>52783.348420</v>
+        <v>52783.348420000002</v>
       </c>
       <c r="L15" s="1">
         <v>14.662041</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.750000</v>
+        <v>1193.75</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.484000</v>
+        <v>-149.48400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>52794.198406</v>
+        <v>52794.198406000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.665055</v>
+        <v>14.665055000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.640000</v>
+        <v>1201.6400000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.991000</v>
+        <v>-127.991</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>52804.676393</v>
+        <v>52804.676393000002</v>
       </c>
       <c r="V15" s="1">
         <v>14.667966</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.170000</v>
+        <v>1209.17</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.535000</v>
+        <v>-107.535</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>52814.883066</v>
+        <v>52814.883066000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.670801</v>
+        <v>14.670801000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.759100</v>
+        <v>-90.759100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>52825.376925</v>
+        <v>52825.376924999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.673716</v>
+        <v>14.673716000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1221.430000</v>
+        <v>1221.43</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.350000</v>
+        <v>-86.35</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>52835.562799</v>
+        <v>52835.562798999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.676545</v>
+        <v>14.676545000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.921900</v>
+        <v>-89.921899999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>52846.334417</v>
+        <v>52846.334416999998</v>
       </c>
       <c r="AP15" s="1">
         <v>14.679537</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1236.630000</v>
+        <v>1236.6300000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>52857.103027</v>
+        <v>52857.103026999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.682529</v>
+        <v>14.682529000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.782000</v>
+        <v>-121.782</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>52868.235764</v>
+        <v>52868.235763999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.685621</v>
+        <v>14.685620999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.477000</v>
+        <v>-139.477</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>52878.973656</v>
+        <v>52878.973656000002</v>
       </c>
       <c r="BE15" s="1">
         <v>14.688604</v>
       </c>
       <c r="BF15" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.148000</v>
+        <v>-222.148</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>52889.720488</v>
+        <v>52889.720487999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.691589</v>
       </c>
       <c r="BK15" s="1">
-        <v>1366.330000</v>
+        <v>1366.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.590000</v>
+        <v>-359.59</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>52900.311545</v>
+        <v>52900.311544999997</v>
       </c>
       <c r="BO15" s="1">
         <v>14.694531</v>
       </c>
       <c r="BP15" s="1">
-        <v>1481.960000</v>
+        <v>1481.96</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-582.954000</v>
+        <v>-582.95399999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>52910.819793</v>
+        <v>52910.819793000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.697450</v>
+        <v>14.69745</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.650000</v>
+        <v>1615.65</v>
       </c>
       <c r="BV15" s="1">
-        <v>-835.378000</v>
+        <v>-835.37800000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>52922.090881</v>
+        <v>52922.090880999996</v>
       </c>
       <c r="BY15" s="1">
         <v>14.700581</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.250000</v>
+        <v>1769.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1108.470000</v>
+        <v>-1108.47</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>52934.476942</v>
+        <v>52934.476942000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.704021</v>
+        <v>14.704020999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.590000</v>
+        <v>2191.59</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1772.260000</v>
+        <v>-1772.26</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>52762.448496</v>
+        <v>52762.448495999997</v>
       </c>
       <c r="B16" s="1">
         <v>14.656236</v>
       </c>
       <c r="C16" s="1">
-        <v>1145.390000</v>
+        <v>1145.3900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.725000</v>
+        <v>-254.72499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>52772.894242</v>
+        <v>52772.894242000002</v>
       </c>
       <c r="G16" s="1">
-        <v>14.659137</v>
+        <v>14.659136999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.200000</v>
+        <v>1166.2</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.481000</v>
+        <v>-214.48099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>52784.008101</v>
+        <v>52784.008100999999</v>
       </c>
       <c r="L16" s="1">
         <v>14.662224</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.750000</v>
+        <v>1193.75</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.636000</v>
+        <v>-149.636</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>52794.570902</v>
+        <v>52794.570901999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.665159</v>
+        <v>14.665158999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.972000</v>
+        <v>-127.97199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>52805.045912</v>
+        <v>52805.045912000001</v>
       </c>
       <c r="V16" s="1">
         <v>14.668068</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.481000</v>
+        <v>-107.48099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>52815.231258</v>
       </c>
       <c r="AA16" s="1">
-        <v>14.670898</v>
+        <v>14.670897999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.666100</v>
+        <v>-90.6661</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>52825.720652</v>
+        <v>52825.720652000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.673811</v>
+        <v>14.673811000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.224500</v>
+        <v>-86.224500000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>52835.909006</v>
+        <v>52835.909006000002</v>
       </c>
       <c r="AK16" s="1">
         <v>14.676641</v>
       </c>
       <c r="AL16" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.886100</v>
+        <v>-89.886099999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>52846.764443</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.679657</v>
+        <v>14.679657000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.074000</v>
+        <v>-102.074</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>52857.530082</v>
+        <v>52857.530081999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>14.682647</v>
+        <v>14.682646999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.800000</v>
+        <v>-121.8</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>52868.534356</v>
+        <v>52868.534355999996</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.685704</v>
+        <v>14.685703999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.471000</v>
+        <v>-139.471</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>52879.174503</v>
+        <v>52879.174503000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.688660</v>
+        <v>14.68866</v>
       </c>
       <c r="BF16" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.159000</v>
+        <v>-222.15899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>52890.099383</v>
+        <v>52890.099383000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.691694</v>
       </c>
       <c r="BK16" s="1">
-        <v>1366.380000</v>
+        <v>1366.38</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.478000</v>
+        <v>-359.47800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>52900.709337</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.694641</v>
+        <v>14.694641000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.010000</v>
+        <v>1482.01</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.945000</v>
+        <v>-582.94500000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>52911.231931</v>
+        <v>52911.231931000002</v>
       </c>
       <c r="BT16" s="1">
         <v>14.697564</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.590000</v>
+        <v>1615.59</v>
       </c>
       <c r="BV16" s="1">
-        <v>-835.439000</v>
+        <v>-835.43899999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>52922.548157</v>
+        <v>52922.548156999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>14.700708</v>
+        <v>14.700708000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.300000</v>
+        <v>1769.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1108.470000</v>
+        <v>-1108.47</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>52935.015133</v>
+        <v>52935.015133000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.704171</v>
+        <v>14.704171000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2191.670000</v>
+        <v>2191.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1769.270000</v>
+        <v>-1769.27</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>52763.099280</v>
+        <v>52763.099280000002</v>
       </c>
       <c r="B17" s="1">
         <v>14.656416</v>
       </c>
       <c r="C17" s="1">
-        <v>1145.330000</v>
+        <v>1145.33</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.661000</v>
+        <v>-254.661</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>52773.555905</v>
+        <v>52773.555905000001</v>
       </c>
       <c r="G17" s="1">
         <v>14.659321</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.960000</v>
+        <v>1166.96</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.317000</v>
+        <v>-214.31700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>52784.383075</v>
+        <v>52784.383074999998</v>
       </c>
       <c r="L17" s="1">
         <v>14.662329</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.689000</v>
+        <v>-149.68899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>52794.924549</v>
+        <v>52794.924549000003</v>
       </c>
       <c r="Q17" s="1">
         <v>14.665257</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.988000</v>
+        <v>-127.988</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>52805.386664</v>
+        <v>52805.386663999998</v>
       </c>
       <c r="V17" s="1">
         <v>14.668163</v>
       </c>
       <c r="W17" s="1">
-        <v>1209.010000</v>
+        <v>1209.01</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.343000</v>
+        <v>-107.343</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>52815.581962</v>
+        <v>52815.581961999997</v>
       </c>
       <c r="AA17" s="1">
         <v>14.670995</v>
       </c>
       <c r="AB17" s="1">
-        <v>1216.850000</v>
+        <v>1216.8499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.691800</v>
+        <v>-90.691800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>52826.070332</v>
+        <v>52826.070332000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.673908</v>
+        <v>14.673908000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.450100</v>
+        <v>-86.450100000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>52836.320689</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.676756</v>
+        <v>14.676755999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.880000</v>
+        <v>-89.88</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>52847.055569</v>
+        <v>52847.055568999996</v>
       </c>
       <c r="AP17" s="1">
         <v>14.679738</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>52857.831155</v>
@@ -4471,378 +4887,378 @@
         <v>14.682731</v>
       </c>
       <c r="AV17" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.782000</v>
+        <v>-121.782</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>52868.892932</v>
+        <v>52868.892932000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.685804</v>
+        <v>14.685803999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.477000</v>
+        <v>-139.477</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>52879.532118</v>
+        <v>52879.532118000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.688759</v>
+        <v>14.688758999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1295.850000</v>
+        <v>1295.8499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.160000</v>
+        <v>-222.16</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>52890.472374</v>
+        <v>52890.472373999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.691798</v>
       </c>
       <c r="BK17" s="1">
-        <v>1366.420000</v>
+        <v>1366.42</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.503000</v>
+        <v>-359.50299999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>52901.133385</v>
+        <v>52901.133385000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.694759</v>
+        <v>14.694758999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1481.990000</v>
+        <v>1481.99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-582.927000</v>
+        <v>-582.92700000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>52911.662991</v>
+        <v>52911.662990999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.697684</v>
+        <v>14.697684000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.510000</v>
+        <v>1615.51</v>
       </c>
       <c r="BV17" s="1">
-        <v>-835.467000</v>
+        <v>-835.46699999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>52922.991116</v>
+        <v>52922.991115999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.700831</v>
+        <v>14.700831000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.280000</v>
+        <v>1769.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1108.660000</v>
+        <v>-1108.6600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>52935.555243</v>
+        <v>52935.555243000003</v>
       </c>
       <c r="CD17" s="1">
         <v>14.704321</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.380000</v>
+        <v>2190.38</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1771.340000</v>
+        <v>-1771.34</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>52763.471777</v>
+        <v>52763.471776999999</v>
       </c>
       <c r="B18" s="1">
-        <v>14.656520</v>
+        <v>14.65652</v>
       </c>
       <c r="C18" s="1">
-        <v>1145.360000</v>
+        <v>1145.3599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-254.715000</v>
+        <v>-254.715</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>52773.929392</v>
+        <v>52773.929391999998</v>
       </c>
       <c r="G18" s="1">
-        <v>14.659425</v>
+        <v>14.659425000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.264000</v>
+        <v>-214.26400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>52784.727298</v>
+        <v>52784.727297999998</v>
       </c>
       <c r="L18" s="1">
         <v>14.662424</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.760000</v>
+        <v>1193.76</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.840000</v>
+        <v>-149.84</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>52795.272280</v>
+        <v>52795.272279999997</v>
       </c>
       <c r="Q18" s="1">
         <v>14.665353</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.992000</v>
+        <v>-127.992</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>52805.730888</v>
+        <v>52805.730887999998</v>
       </c>
       <c r="V18" s="1">
-        <v>14.668259</v>
+        <v>14.668259000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.110000</v>
+        <v>1209.1099999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.528000</v>
+        <v>-107.52800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>52816.007509</v>
+        <v>52816.007509000003</v>
       </c>
       <c r="AA18" s="1">
         <v>14.671113</v>
       </c>
       <c r="AB18" s="1">
-        <v>1216.490000</v>
+        <v>1216.49</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.323500</v>
+        <v>-90.323499999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>52826.484528</v>
+        <v>52826.484528000001</v>
       </c>
       <c r="AF18" s="1">
         <v>14.674023</v>
       </c>
       <c r="AG18" s="1">
-        <v>1221.560000</v>
+        <v>1221.56</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.406800</v>
+        <v>-86.406800000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>52836.618750</v>
+        <v>52836.618750000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.676839</v>
+        <v>14.676838999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.913000</v>
+        <v>-89.912999999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>52847.414706</v>
+        <v>52847.414706000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.679837</v>
+        <v>14.679836999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>52858.194721</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.682832</v>
+        <v>14.682831999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.786000</v>
+        <v>-121.786</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>52869.251081</v>
+        <v>52869.251081000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.685903</v>
       </c>
       <c r="BA18" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.449000</v>
+        <v>-139.44900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>52880.253333</v>
+        <v>52880.253333000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.688959</v>
+        <v>14.688959000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.146000</v>
+        <v>-222.14599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>52891.085000</v>
+        <v>52891.084999999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>14.691968</v>
+        <v>14.691967999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1366.400000</v>
+        <v>1366.4</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.570000</v>
+        <v>-359.57</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>52901.524765</v>
+        <v>52901.524765000002</v>
       </c>
       <c r="BO18" s="1">
         <v>14.694868</v>
       </c>
       <c r="BP18" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-582.962000</v>
+        <v>-582.96199999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>52912.090010</v>
+        <v>52912.09001</v>
       </c>
       <c r="BT18" s="1">
         <v>14.697803</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.440000</v>
+        <v>1615.44</v>
       </c>
       <c r="BV18" s="1">
-        <v>-835.456000</v>
+        <v>-835.45600000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>52923.451403</v>
+        <v>52923.451402999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.700959</v>
+        <v>14.700958999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.210000</v>
+        <v>1769.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1108.590000</v>
+        <v>-1108.5899999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>52936.396490</v>
+        <v>52936.396489999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.704555</v>
+        <v>14.704554999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1769.460000</v>
+        <v>-1769.46</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>52763.816992</v>
       </c>
@@ -4850,88 +5266,88 @@
         <v>14.656616</v>
       </c>
       <c r="C19" s="1">
-        <v>1145.310000</v>
+        <v>1145.31</v>
       </c>
       <c r="D19" s="1">
-        <v>-254.645000</v>
+        <v>-254.64500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>52774.272129</v>
+        <v>52774.272128999997</v>
       </c>
       <c r="G19" s="1">
-        <v>14.659520</v>
+        <v>14.659520000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.010000</v>
+        <v>1166.01</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.343000</v>
+        <v>-215.34299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>52785.075986</v>
+        <v>52785.075986000003</v>
       </c>
       <c r="L19" s="1">
         <v>14.662521</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.760000</v>
+        <v>1193.76</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.832000</v>
+        <v>-149.83199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>52795.706275</v>
+        <v>52795.706274999997</v>
       </c>
       <c r="Q19" s="1">
         <v>14.665474</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.730000</v>
+        <v>1201.73</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.986000</v>
+        <v>-127.986</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>52806.162904</v>
+        <v>52806.162903999997</v>
       </c>
       <c r="V19" s="1">
         <v>14.668379</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.434000</v>
+        <v>-107.434</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>52816.285256</v>
+        <v>52816.285256000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.671190</v>
+        <v>14.671189999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.667100</v>
+        <v>-90.667100000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>52826.775146</v>
@@ -4940,88 +5356,88 @@
         <v>14.674104</v>
       </c>
       <c r="AG19" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.276200</v>
+        <v>-86.276200000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>52836.968462</v>
+        <v>52836.968461999997</v>
       </c>
       <c r="AK19" s="1">
         <v>14.676936</v>
       </c>
       <c r="AL19" s="1">
-        <v>1228.590000</v>
+        <v>1228.5899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.875700</v>
+        <v>-89.875699999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>52847.778239</v>
+        <v>52847.778238999999</v>
       </c>
       <c r="AP19" s="1">
         <v>14.679938</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1236.610000</v>
+        <v>1236.6099999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.113000</v>
+        <v>-102.113</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>52858.562753</v>
+        <v>52858.562752999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.682934</v>
+        <v>14.682933999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.765000</v>
+        <v>-121.765</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>52869.969747</v>
+        <v>52869.969747000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.686103</v>
+        <v>14.686102999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>52880.616869</v>
+        <v>52880.616868999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.689060</v>
+        <v>14.68906</v>
       </c>
       <c r="BF19" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.160000</v>
+        <v>-222.16</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>52891.480247</v>
@@ -5030,43 +5446,43 @@
         <v>14.692078</v>
       </c>
       <c r="BK19" s="1">
-        <v>1366.270000</v>
+        <v>1366.27</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.485000</v>
+        <v>-359.48500000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>52901.944841</v>
+        <v>52901.944840999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.694985</v>
+        <v>14.694985000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1481.950000</v>
+        <v>1481.95</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-582.935000</v>
+        <v>-582.93499999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>52912.504170</v>
+        <v>52912.50417</v>
       </c>
       <c r="BT19" s="1">
         <v>14.697918</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.440000</v>
+        <v>1615.44</v>
       </c>
       <c r="BV19" s="1">
-        <v>-835.426000</v>
+        <v>-835.42600000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>52924.206778</v>
@@ -5075,180 +5491,180 @@
         <v>14.701169</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.340000</v>
+        <v>1769.34</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1108.490000</v>
+        <v>-1108.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>52936.631562</v>
+        <v>52936.631562000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.704620</v>
+        <v>14.70462</v>
       </c>
       <c r="CE19" s="1">
-        <v>2190.640000</v>
+        <v>2190.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1769.650000</v>
+        <v>-1769.65</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>52764.157711</v>
       </c>
       <c r="B20" s="1">
-        <v>14.656710</v>
+        <v>14.65671</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.210000</v>
+        <v>1145.21</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.944000</v>
+        <v>-254.94399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>52774.616849</v>
+        <v>52774.616848999998</v>
       </c>
       <c r="G20" s="1">
         <v>14.659616</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.820000</v>
+        <v>1165.82</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.178000</v>
+        <v>-214.178</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>52785.514946</v>
+        <v>52785.514946000003</v>
       </c>
       <c r="L20" s="1">
-        <v>14.662643</v>
+        <v>14.662642999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.800000</v>
+        <v>1193.8</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.640000</v>
+        <v>-149.63999999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>52795.971107</v>
+        <v>52795.971106999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.665548</v>
+        <v>14.665547999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.046000</v>
+        <v>-128.04599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>52806.439174</v>
+        <v>52806.439173999999</v>
       </c>
       <c r="V20" s="1">
         <v>14.668455</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.080000</v>
+        <v>1209.08</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.556000</v>
+        <v>-107.556</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>52816.631960</v>
+        <v>52816.631959999999</v>
       </c>
       <c r="AA20" s="1">
         <v>14.671287</v>
       </c>
       <c r="AB20" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.561000</v>
+        <v>-90.561000000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>52827.115902</v>
+        <v>52827.115901999998</v>
       </c>
       <c r="AF20" s="1">
         <v>14.674199</v>
       </c>
       <c r="AG20" s="1">
-        <v>1221.400000</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.342000</v>
+        <v>-86.341999999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>52837.316125</v>
+        <v>52837.316124999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>14.677032</v>
+        <v>14.677032000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.883500</v>
+        <v>-89.883499999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>52848.498958</v>
+        <v>52848.498957999996</v>
       </c>
       <c r="AP20" s="1">
         <v>14.680139</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1236.590000</v>
+        <v>1236.5899999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.079000</v>
+        <v>-102.07899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>52859.299809</v>
+        <v>52859.299808999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.683139</v>
+        <v>14.683139000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.790000</v>
+        <v>-121.79</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>52870.327394</v>
@@ -5257,180 +5673,180 @@
         <v>14.686202</v>
       </c>
       <c r="BA20" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.491000</v>
+        <v>-139.49100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>52880.975508</v>
+        <v>52880.975508000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.689160</v>
+        <v>14.689159999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.136000</v>
+        <v>-222.136</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>52891.852773</v>
+        <v>52891.852772999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.692181</v>
       </c>
       <c r="BK20" s="1">
-        <v>1366.360000</v>
+        <v>1366.36</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.557000</v>
+        <v>-359.55700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>52902.659111</v>
+        <v>52902.659111000001</v>
       </c>
       <c r="BO20" s="1">
         <v>14.695183</v>
       </c>
       <c r="BP20" s="1">
-        <v>1481.960000</v>
+        <v>1481.96</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-582.948000</v>
+        <v>-582.94799999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>52913.309714</v>
+        <v>52913.309714000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.698142</v>
+        <v>14.698142000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.380000</v>
+        <v>1615.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-835.471000</v>
+        <v>-835.471</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>52924.348172</v>
+        <v>52924.348171999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>14.701208</v>
+        <v>14.701207999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.130000</v>
+        <v>1769.13</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1108.360000</v>
+        <v>-1108.3599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>52937.151369</v>
+        <v>52937.151368999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.704764</v>
+        <v>14.704764000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.510000</v>
+        <v>2190.5100000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1771.670000</v>
+        <v>-1771.67</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>52764.578349</v>
+        <v>52764.578349000003</v>
       </c>
       <c r="B21" s="1">
         <v>14.656827</v>
       </c>
       <c r="C21" s="1">
-        <v>1145.330000</v>
+        <v>1145.33</v>
       </c>
       <c r="D21" s="1">
-        <v>-254.511000</v>
+        <v>-254.511</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>52775.319679</v>
       </c>
       <c r="G21" s="1">
-        <v>14.659811</v>
+        <v>14.659810999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.130000</v>
+        <v>1166.1300000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.270000</v>
+        <v>-214.27</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>52785.788738</v>
+        <v>52785.788738000003</v>
       </c>
       <c r="L21" s="1">
-        <v>14.662719</v>
+        <v>14.662718999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.460000</v>
+        <v>1193.46</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.687000</v>
+        <v>-149.68700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>52796.317316</v>
+        <v>52796.317316000001</v>
       </c>
       <c r="Q21" s="1">
         <v>14.665644</v>
       </c>
       <c r="R21" s="1">
-        <v>1201.640000</v>
+        <v>1201.6400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.015000</v>
+        <v>-128.01499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>52806.783397</v>
+        <v>52806.783396999999</v>
       </c>
       <c r="V21" s="1">
-        <v>14.668551</v>
+        <v>14.668551000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.524000</v>
+        <v>-107.524</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>52816.983624</v>
@@ -5439,270 +5855,270 @@
         <v>14.671384</v>
       </c>
       <c r="AB21" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.701300</v>
+        <v>-90.701300000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>52827.701179</v>
+        <v>52827.701179000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.674361</v>
+        <v>14.674360999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.309200</v>
+        <v>-86.309200000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>52838.012013</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.677226</v>
+        <v>14.677225999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.893200</v>
+        <v>-89.893199999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>52848.886797</v>
+        <v>52848.886796999999</v>
       </c>
       <c r="AP21" s="1">
         <v>14.680246</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1236.620000</v>
+        <v>1236.6199999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>52859.680737</v>
+        <v>52859.680737000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.683245</v>
+        <v>14.683244999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.801000</v>
+        <v>-121.801</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>52870.686979</v>
+        <v>52870.686978999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>14.686302</v>
       </c>
       <c r="BA21" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.477000</v>
+        <v>-139.477</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>52881.646104</v>
+        <v>52881.646103999999</v>
       </c>
       <c r="BE21" s="1">
         <v>14.689346</v>
       </c>
       <c r="BF21" s="1">
-        <v>1295.850000</v>
+        <v>1295.8499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.143000</v>
+        <v>-222.143</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>52892.549125</v>
+        <v>52892.549124999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.692375</v>
       </c>
       <c r="BK21" s="1">
-        <v>1366.290000</v>
+        <v>1366.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.484000</v>
+        <v>-359.48399999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>52902.768696</v>
+        <v>52902.768695999999</v>
       </c>
       <c r="BO21" s="1">
         <v>14.695214</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.000000</v>
+        <v>1482</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.965000</v>
+        <v>-582.96500000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>52913.796776</v>
+        <v>52913.796776000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.698277</v>
+        <v>14.698276999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1615.460000</v>
+        <v>1615.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-835.493000</v>
+        <v>-835.49300000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>52924.770730</v>
+        <v>52924.770729999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.701325</v>
+        <v>14.701325000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.100000</v>
+        <v>1769.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1108.630000</v>
+        <v>-1108.6300000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>52937.668200</v>
+        <v>52937.6682</v>
       </c>
       <c r="CD21" s="1">
         <v>14.704908</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.880000</v>
+        <v>2189.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1770.770000</v>
+        <v>-1770.77</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>52764.859088</v>
+        <v>52764.859087999997</v>
       </c>
       <c r="B22" s="1">
         <v>14.656905</v>
       </c>
       <c r="C22" s="1">
-        <v>1145.320000</v>
+        <v>1145.32</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.757000</v>
+        <v>-254.75700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>52775.668862</v>
+        <v>52775.668861999999</v>
       </c>
       <c r="G22" s="1">
         <v>14.659908</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.650000</v>
+        <v>1165.6500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.236000</v>
+        <v>-214.23599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>52786.131009</v>
+        <v>52786.131008999997</v>
       </c>
       <c r="L22" s="1">
-        <v>14.662814</v>
+        <v>14.662813999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.698000</v>
+        <v>-149.69800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>52796.663027</v>
+        <v>52796.663027000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.665740</v>
+        <v>14.66574</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.710000</v>
+        <v>1201.71</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.931000</v>
+        <v>-127.931</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>52807.128645</v>
+        <v>52807.128644999997</v>
       </c>
       <c r="V22" s="1">
         <v>14.668647</v>
       </c>
       <c r="W22" s="1">
-        <v>1209.040000</v>
+        <v>1209.04</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.500000</v>
+        <v>-107.5</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>52817.679015</v>
+        <v>52817.679015000002</v>
       </c>
       <c r="AA22" s="1">
         <v>14.671578</v>
       </c>
       <c r="AB22" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.630300</v>
+        <v>-90.630300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>52827.813275</v>
@@ -5711,210 +6127,210 @@
         <v>14.674393</v>
       </c>
       <c r="AG22" s="1">
-        <v>1221.490000</v>
+        <v>1221.49</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.332300</v>
+        <v>-86.332300000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>52838.362189</v>
+        <v>52838.362188999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.677323</v>
+        <v>14.677322999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1228.600000</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.904400</v>
+        <v>-89.904399999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>52849.246398</v>
+        <v>52849.246398000003</v>
       </c>
       <c r="AP22" s="1">
         <v>14.680346</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.104000</v>
+        <v>-102.104</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>52860.046782</v>
+        <v>52860.046781999998</v>
       </c>
       <c r="AU22" s="1">
         <v>14.683346</v>
       </c>
       <c r="AV22" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.795000</v>
+        <v>-121.795</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>52871.362048</v>
+        <v>52871.362048000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.686489</v>
       </c>
       <c r="BA22" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.479000</v>
+        <v>-139.47900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>52882.093494</v>
+        <v>52882.093494000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.689470</v>
+        <v>14.68947</v>
       </c>
       <c r="BF22" s="1">
-        <v>1295.850000</v>
+        <v>1295.8499999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.159000</v>
+        <v>-222.15899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>52893.008420</v>
+        <v>52893.008419999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.692502</v>
+        <v>14.692501999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1366.350000</v>
+        <v>1366.35</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.442000</v>
+        <v>-359.44200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>52903.188806</v>
+        <v>52903.188805999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.695330</v>
+        <v>14.69533</v>
       </c>
       <c r="BP22" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-582.935000</v>
+        <v>-582.93499999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>52914.232963</v>
+        <v>52914.232963000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.698398</v>
+        <v>14.698397999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1615.310000</v>
+        <v>1615.31</v>
       </c>
       <c r="BV22" s="1">
-        <v>-835.365000</v>
+        <v>-835.36500000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>52925.195334</v>
+        <v>52925.195334000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.701443</v>
+        <v>14.701442999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1108.720000</v>
+        <v>-1108.72</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>52938.223224</v>
+        <v>52938.223224000001</v>
       </c>
       <c r="CD22" s="1">
         <v>14.705062</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.080000</v>
+        <v>2190.08</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1769.780000</v>
+        <v>-1769.78</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>52765.200336</v>
+        <v>52765.200336000002</v>
       </c>
       <c r="B23" s="1">
-        <v>14.657000</v>
+        <v>14.657</v>
       </c>
       <c r="C23" s="1">
-        <v>1145.460000</v>
+        <v>1145.46</v>
       </c>
       <c r="D23" s="1">
-        <v>-254.915000</v>
+        <v>-254.91499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>52776.015071</v>
+        <v>52776.015071000002</v>
       </c>
       <c r="G23" s="1">
-        <v>14.660004</v>
+        <v>14.660004000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.340000</v>
+        <v>1166.3399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.490000</v>
+        <v>-213.49</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>52786.480657</v>
       </c>
       <c r="L23" s="1">
-        <v>14.662911</v>
+        <v>14.662910999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.471000</v>
+        <v>-149.471</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>52797.361891</v>
@@ -5923,981 +6339,982 @@
         <v>14.665934</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.969000</v>
+        <v>-127.96899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>52807.816566</v>
+        <v>52807.816566000001</v>
       </c>
       <c r="V23" s="1">
-        <v>14.668838</v>
+        <v>14.668837999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.270000</v>
+        <v>1209.27</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.494000</v>
+        <v>-107.494</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>52818.029718</v>
+        <v>52818.029717999998</v>
       </c>
       <c r="AA23" s="1">
         <v>14.671675</v>
       </c>
       <c r="AB23" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.617900</v>
+        <v>-90.617900000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>52828.153561</v>
+        <v>52828.153560999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.674487</v>
+        <v>14.674486999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1221.430000</v>
+        <v>1221.43</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.223800</v>
+        <v>-86.223799999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>52838.710380</v>
+        <v>52838.710379999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.677420</v>
+        <v>14.67742</v>
       </c>
       <c r="AL23" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.923900</v>
+        <v>-89.923900000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>52849.914014</v>
+        <v>52849.914014000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.680532</v>
+        <v>14.680531999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>52860.722867</v>
+        <v>52860.722866999997</v>
       </c>
       <c r="AU23" s="1">
         <v>14.683534</v>
       </c>
       <c r="AV23" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.805000</v>
+        <v>-121.80500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>52871.797007</v>
+        <v>52871.797007000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.686610</v>
+        <v>14.68661</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.190000</v>
+        <v>1255.19</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.461000</v>
+        <v>-139.46100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>52882.453555</v>
       </c>
       <c r="BE23" s="1">
-        <v>14.689570</v>
+        <v>14.68957</v>
       </c>
       <c r="BF23" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.153000</v>
+        <v>-222.15299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>52893.395824</v>
+        <v>52893.395823999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.692610</v>
+        <v>14.69261</v>
       </c>
       <c r="BK23" s="1">
-        <v>1366.380000</v>
+        <v>1366.38</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.561000</v>
+        <v>-359.56099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>52903.583950</v>
+        <v>52903.58395</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.695440</v>
+        <v>14.69544</v>
       </c>
       <c r="BP23" s="1">
-        <v>1481.970000</v>
+        <v>1481.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.953000</v>
+        <v>-582.95299999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>52914.647383</v>
+        <v>52914.647383000003</v>
       </c>
       <c r="BT23" s="1">
         <v>14.698513</v>
       </c>
       <c r="BU23" s="1">
-        <v>1615.350000</v>
+        <v>1615.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-835.483000</v>
+        <v>-835.48299999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>52925.615912</v>
+        <v>52925.615912000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.701560</v>
+        <v>14.701560000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1108.510000</v>
+        <v>-1108.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>52938.752456</v>
+        <v>52938.752456000002</v>
       </c>
       <c r="CD23" s="1">
         <v>14.705209</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.780000</v>
+        <v>2190.7800000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1771.620000</v>
+        <v>-1771.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>52765.539097</v>
+        <v>52765.539097000001</v>
       </c>
       <c r="B24" s="1">
-        <v>14.657094</v>
+        <v>14.657094000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1145.510000</v>
+        <v>1145.51</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.705000</v>
+        <v>-254.70500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>52776.705005</v>
+        <v>52776.705005000003</v>
       </c>
       <c r="G24" s="1">
-        <v>14.660196</v>
+        <v>14.660195999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.370000</v>
+        <v>1166.3699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.758000</v>
+        <v>-213.75800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>52787.175551</v>
       </c>
       <c r="L24" s="1">
-        <v>14.663104</v>
+        <v>14.663104000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.850000</v>
+        <v>1193.8499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.439000</v>
+        <v>-149.43899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>52797.712102</v>
+        <v>52797.712101999998</v>
       </c>
       <c r="Q24" s="1">
         <v>14.666031</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.013000</v>
+        <v>-128.01300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>52808.160789</v>
+        <v>52808.160789000001</v>
       </c>
       <c r="V24" s="1">
         <v>14.668934</v>
       </c>
       <c r="W24" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.485000</v>
+        <v>-107.485</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>52818.379366</v>
+        <v>52818.379366000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.671772</v>
+        <v>14.671772000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1216.550000</v>
+        <v>1216.55</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.654900</v>
+        <v>-90.654899999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>52828.813210</v>
+        <v>52828.81321</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.674670</v>
+        <v>14.674670000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.293300</v>
+        <v>-86.293300000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>52839.369100</v>
+        <v>52839.369100000004</v>
       </c>
       <c r="AK24" s="1">
         <v>14.677603</v>
       </c>
       <c r="AL24" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.885400</v>
+        <v>-89.885400000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>52850.350492</v>
+        <v>52850.350491999998</v>
       </c>
       <c r="AP24" s="1">
         <v>14.680653</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1236.580000</v>
+        <v>1236.58</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>52861.168274</v>
+        <v>52861.168274000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>14.683658</v>
+        <v>14.683657999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.784000</v>
+        <v>-121.78400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>52872.158592</v>
       </c>
       <c r="AZ24" s="1">
-        <v>14.686711</v>
+        <v>14.686711000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.449000</v>
+        <v>-139.44900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>52882.816161</v>
+        <v>52882.816161000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.689671</v>
+        <v>14.689671000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1295.870000</v>
+        <v>1295.8699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.132000</v>
+        <v>-222.13200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>52893.771762</v>
+        <v>52893.771761999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.692714</v>
       </c>
       <c r="BK24" s="1">
-        <v>1366.350000</v>
+        <v>1366.35</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.464000</v>
+        <v>-359.464</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>52904.012198</v>
+        <v>52904.012197999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.695559</v>
+        <v>14.695558999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1481.960000</v>
+        <v>1481.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.941000</v>
+        <v>-582.94100000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>52915.073975</v>
+        <v>52915.073974999999</v>
       </c>
       <c r="BT24" s="1">
         <v>14.698632</v>
       </c>
       <c r="BU24" s="1">
-        <v>1615.250000</v>
+        <v>1615.25</v>
       </c>
       <c r="BV24" s="1">
-        <v>-835.458000</v>
+        <v>-835.45799999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>52926.059335</v>
+        <v>52926.059334999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.701683</v>
+        <v>14.701682999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.130000</v>
+        <v>1769.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1108.440000</v>
+        <v>-1108.44</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>52939.270310</v>
+        <v>52939.27031</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.705353</v>
+        <v>14.705353000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2192.600000</v>
+        <v>2192.6</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1771.070000</v>
+        <v>-1771.07</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>52766.224043</v>
+        <v>52766.224043000002</v>
       </c>
       <c r="B25" s="1">
-        <v>14.657284</v>
+        <v>14.657284000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1145.380000</v>
+        <v>1145.3800000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-254.720000</v>
+        <v>-254.72</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>52777.050717</v>
+        <v>52777.050716999998</v>
       </c>
       <c r="G25" s="1">
         <v>14.660292</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.790000</v>
+        <v>1166.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.054000</v>
+        <v>-214.054</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>52787.517826</v>
+        <v>52787.517826000003</v>
       </c>
       <c r="L25" s="1">
-        <v>14.663199</v>
+        <v>14.663199000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.670000</v>
+        <v>1193.67</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.620000</v>
+        <v>-149.62</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>52798.060256</v>
+        <v>52798.060255999997</v>
       </c>
       <c r="Q25" s="1">
         <v>14.666128</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.700000</v>
+        <v>1201.7</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.040000</v>
+        <v>-128.04</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>52808.502532</v>
+        <v>52808.502531999999</v>
       </c>
       <c r="V25" s="1">
-        <v>14.669028</v>
+        <v>14.669028000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.190000</v>
+        <v>1209.19</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.402000</v>
+        <v>-107.402</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>52819.037061</v>
+        <v>52819.037061000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.671955</v>
+        <v>14.671955000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1216.830000</v>
+        <v>1216.83</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.632600</v>
+        <v>-90.632599999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>52829.180744</v>
+        <v>52829.180743999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.674772</v>
+        <v>14.674772000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.347400</v>
+        <v>-86.347399999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>52839.756348</v>
+        <v>52839.756348000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.677710</v>
+        <v>14.677709999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1228.600000</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.903300</v>
+        <v>-89.903300000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>52850.710123</v>
+        <v>52850.710122999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.680753</v>
+        <v>14.680752999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1236.560000</v>
+        <v>1236.56</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>52861.602238</v>
+        <v>52861.602237999999</v>
       </c>
       <c r="AU25" s="1">
         <v>14.683778</v>
       </c>
       <c r="AV25" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.796000</v>
+        <v>-121.79600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>52872.512736</v>
+        <v>52872.512735999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.686809</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.477000</v>
+        <v>-139.477</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>52883.237730</v>
+        <v>52883.237730000001</v>
       </c>
       <c r="BE25" s="1">
         <v>14.689788</v>
       </c>
       <c r="BF25" s="1">
-        <v>1295.870000</v>
+        <v>1295.8699999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.178000</v>
+        <v>-222.178</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>52894.197825</v>
+        <v>52894.197825000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.692833</v>
       </c>
       <c r="BK25" s="1">
-        <v>1366.360000</v>
+        <v>1366.36</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.569000</v>
+        <v>-359.56900000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>52904.402516</v>
+        <v>52904.402516000002</v>
       </c>
       <c r="BO25" s="1">
         <v>14.695667</v>
       </c>
       <c r="BP25" s="1">
-        <v>1481.960000</v>
+        <v>1481.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.921000</v>
+        <v>-582.92100000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>52915.502487</v>
+        <v>52915.502486999998</v>
       </c>
       <c r="BT25" s="1">
         <v>14.698751</v>
       </c>
       <c r="BU25" s="1">
-        <v>1615.330000</v>
+        <v>1615.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-835.507000</v>
+        <v>-835.50699999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>52926.480938</v>
+        <v>52926.480938000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.701800</v>
+        <v>14.7018</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.320000</v>
+        <v>1769.32</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1108.590000</v>
+        <v>-1108.5899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>52939.788598</v>
+        <v>52939.788597999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.705497</v>
+        <v>14.705496999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.810000</v>
+        <v>2191.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1769.080000</v>
+        <v>-1769.08</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>52766.568794</v>
+        <v>52766.568793999999</v>
       </c>
       <c r="B26" s="1">
-        <v>14.657380</v>
+        <v>14.65738</v>
       </c>
       <c r="C26" s="1">
-        <v>1145.460000</v>
+        <v>1145.46</v>
       </c>
       <c r="D26" s="1">
-        <v>-254.718000</v>
+        <v>-254.71799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>52777.392956</v>
+        <v>52777.392956000003</v>
       </c>
       <c r="G26" s="1">
         <v>14.660387</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.560000</v>
+        <v>1166.56</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.961000</v>
+        <v>-214.96100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>52787.864990</v>
+        <v>52787.864990000002</v>
       </c>
       <c r="L26" s="1">
-        <v>14.663296</v>
+        <v>14.663296000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.790000</v>
+        <v>1193.79</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.648000</v>
+        <v>-149.648</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>52798.739280</v>
+        <v>52798.739280000002</v>
       </c>
       <c r="Q26" s="1">
         <v>14.666316</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.580000</v>
+        <v>1201.58</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.980000</v>
+        <v>-127.98</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>52809.149851</v>
+        <v>52809.149851000002</v>
       </c>
       <c r="V26" s="1">
-        <v>14.669208</v>
+        <v>14.669207999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.474000</v>
+        <v>-107.474</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>52819.424725</v>
+        <v>52819.424724999997</v>
       </c>
       <c r="AA26" s="1">
         <v>14.672062</v>
       </c>
       <c r="AB26" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.710100</v>
+        <v>-90.710099999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>52829.524484</v>
+        <v>52829.524484000001</v>
       </c>
       <c r="AF26" s="1">
         <v>14.674868</v>
       </c>
       <c r="AG26" s="1">
-        <v>1221.280000</v>
+        <v>1221.28</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.258100</v>
+        <v>-86.258099999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>52840.106439</v>
+        <v>52840.106439000003</v>
       </c>
       <c r="AK26" s="1">
         <v>14.677807</v>
       </c>
       <c r="AL26" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.926100</v>
+        <v>-89.926100000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>52851.073690</v>
+        <v>52851.073689999997</v>
       </c>
       <c r="AP26" s="1">
         <v>14.680854</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.078000</v>
+        <v>-102.078</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>52861.894382</v>
+        <v>52861.894381999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.683860</v>
+        <v>14.683859999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.784000</v>
+        <v>-121.78400000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>52872.944285</v>
+        <v>52872.944284999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.686929</v>
+        <v>14.686928999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.457000</v>
+        <v>-139.45699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>52883.538800</v>
+        <v>52883.538800000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.689872</v>
+        <v>14.689871999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1295.860000</v>
+        <v>1295.8599999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.155000</v>
+        <v>-222.155</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>52894.523699</v>
+        <v>52894.523698999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.692923</v>
       </c>
       <c r="BK26" s="1">
-        <v>1366.350000</v>
+        <v>1366.35</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.479000</v>
+        <v>-359.47899999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>52904.826101</v>
+        <v>52904.826100999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>14.695785</v>
+        <v>14.695785000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1481.940000</v>
+        <v>1481.94</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.947000</v>
+        <v>-582.947</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>52915.912713</v>
+        <v>52915.912712999998</v>
       </c>
       <c r="BT26" s="1">
         <v>14.698865</v>
       </c>
       <c r="BU26" s="1">
-        <v>1615.380000</v>
+        <v>1615.38</v>
       </c>
       <c r="BV26" s="1">
-        <v>-835.376000</v>
+        <v>-835.37599999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>52926.905024</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.701918</v>
+        <v>14.701917999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.100000</v>
+        <v>1769.1</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1108.670000</v>
+        <v>-1108.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>52940.303942</v>
+        <v>52940.303941999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.705640</v>
+        <v>14.705640000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.530000</v>
+        <v>2191.5300000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1769.560000</v>
+        <v>-1769.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>